--- a/src/test/resources/import/generic/error-unknown-header.xlsx
+++ b/src/test/resources/import/generic/error-unknown-header.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85F72429-CD6A-468B-B3F1-D8D0544BF7E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9A5C6AC0-B284-4F93-A32F-86A2A2904F8F}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>First Name</t>
   </si>
@@ -89,7 +89,7 @@
     <t>gagneray@beable.com</t>
   </si>
   <si>
-    <t>PT_BR</t>
+    <t>IT_IT</t>
   </si>
   <si>
     <t>another header</t>
@@ -116,19 +116,13 @@
     <t>VISIO</t>
   </si>
   <si>
-    <t>ES_ES</t>
+    <t>DE_DE</t>
   </si>
   <si>
     <t>ASSESSMENT</t>
   </si>
   <si>
-    <t>IT_IT</t>
-  </si>
-  <si>
     <t>NEWS</t>
-  </si>
-  <si>
-    <t>DE_DE</t>
   </si>
 </sst>
 </file>
@@ -494,7 +488,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,7 +599,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{0AE93642-3064-541A-AC2E-D2431B81D913}">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -660,7 +654,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>45</v>
@@ -690,7 +684,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -705,7 +699,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -717,7 +711,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -729,10 +723,10 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>55</v>
